--- a/number of overdue calls change, 2012 and 2018.xlsx
+++ b/number of overdue calls change, 2012 and 2018.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10309"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27510"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuantian/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hata/Documents/Boston-311-Services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A2636D-A9E9-DA4A-B0D9-1F8F68CF035F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1300" windowWidth="26640" windowHeight="15680" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="640" yWindow="1200" windowWidth="26640" windowHeight="15680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000"/>
+  <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -90,7 +92,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -100,12 +102,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -120,8 +128,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,224 +474,270 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="C2" s="2">
         <v>1418</v>
       </c>
-      <c r="C2">
+      <c r="D2" s="2">
         <v>1819</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="C3" s="2">
         <v>1083</v>
       </c>
-      <c r="C3">
+      <c r="D3" s="2">
         <v>1257</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="C4" s="2">
         <v>440</v>
       </c>
-      <c r="C4">
+      <c r="D4" s="2">
         <v>533</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="C5" s="2">
         <v>53</v>
       </c>
-      <c r="C5">
+      <c r="D5" s="2">
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="C6" s="2">
         <v>575</v>
       </c>
-      <c r="C6">
+      <c r="D6" s="2">
         <v>932</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="C7" s="2">
         <v>1</v>
       </c>
-      <c r="C7">
+      <c r="D7" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="C8" s="2">
         <v>2570</v>
       </c>
-      <c r="C8">
+      <c r="D8" s="2">
         <v>3026</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B9">
+      <c r="C9" s="2">
         <v>1214</v>
       </c>
-      <c r="C9">
+      <c r="D9" s="2">
         <v>1566</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10">
+      <c r="C10" s="2">
         <v>1053</v>
       </c>
-      <c r="C10">
+      <c r="D10" s="2">
         <v>1142</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="C11" s="2">
         <v>678</v>
       </c>
-      <c r="C11">
+      <c r="D11" s="2">
         <v>1040</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12">
+      <c r="C12" s="2">
         <v>1011</v>
       </c>
-      <c r="C12">
+      <c r="D12" s="2">
         <v>1914</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B13">
+      <c r="C13" s="2">
         <v>702</v>
       </c>
-      <c r="C13">
+      <c r="D13" s="2">
         <v>1046</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B14">
+      <c r="C14" s="2">
         <v>386</v>
       </c>
-      <c r="C14">
+      <c r="D14" s="2">
         <v>595</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B15">
+      <c r="C15" s="2">
         <v>1684</v>
       </c>
-      <c r="C15">
+      <c r="D15" s="2">
         <v>2267</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B16">
+      <c r="C16" s="2">
         <v>1123</v>
       </c>
-      <c r="C16">
+      <c r="D16" s="2">
         <v>1627</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B17">
+      <c r="C17" s="2">
         <v>810</v>
       </c>
-      <c r="C17">
+      <c r="D17" s="2">
         <v>1026</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B18">
+      <c r="C18" s="2">
         <v>781</v>
       </c>
-      <c r="C18">
+      <c r="D18" s="2">
         <v>907</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>